--- a/davis_2018.xlsx
+++ b/davis_2018.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="332">
   <si>
     <t>Date</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>PLAYED &amp; COMPLETED</t>
-  </si>
-  <si>
-    <t>NOT PLAYED</t>
   </si>
   <si>
     <t>MATCH 1</t>
@@ -1370,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB141"/>
+  <dimension ref="A1:AB131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1494,22 +1491,22 @@
         <v>67</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AB2">
         <v>2018</v>
@@ -1547,22 +1544,22 @@
         <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AB3">
         <v>2018</v>
@@ -1603,19 +1600,19 @@
         <v>67</v>
       </c>
       <c r="Q4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AB4">
         <v>2018</v>
@@ -1656,22 +1653,22 @@
         <v>67</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="X5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB5">
         <v>2018</v>
@@ -1718,31 +1715,31 @@
         <v>67</v>
       </c>
       <c r="Q6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AA6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB6">
         <v>2018</v>
@@ -1789,31 +1786,31 @@
         <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="X7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Y7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AB7">
         <v>2018</v>
@@ -1860,22 +1857,22 @@
         <v>67</v>
       </c>
       <c r="Q8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AB8">
         <v>2018</v>
@@ -1922,22 +1919,22 @@
         <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="X9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB9">
         <v>2018</v>
@@ -1948,22 +1945,52 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
       </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
       <c r="P10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" t="s">
         <v>68</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>73</v>
+      </c>
+      <c r="S10" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" t="s">
+        <v>156</v>
+      </c>
+      <c r="V10" t="s">
+        <v>175</v>
+      </c>
+      <c r="W10" t="s">
+        <v>241</v>
       </c>
       <c r="AB10">
         <v>2018</v>
@@ -1986,28 +2013,28 @@
         <v>63</v>
       </c>
       <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
       <c r="I11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P11" t="s">
         <v>67</v>
       </c>
       <c r="Q11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s">
         <v>82</v>
@@ -2020,6 +2047,9 @@
       </c>
       <c r="W11" t="s">
         <v>242</v>
+      </c>
+      <c r="X11" t="s">
+        <v>283</v>
       </c>
       <c r="AB11">
         <v>2018</v>
@@ -2042,19 +2072,22 @@
         <v>63</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
       </c>
       <c r="P12" t="s">
         <v>67</v>
@@ -2063,22 +2096,19 @@
         <v>69</v>
       </c>
       <c r="R12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s">
         <v>83</v>
       </c>
       <c r="U12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V12" t="s">
         <v>177</v>
       </c>
       <c r="W12" t="s">
         <v>243</v>
-      </c>
-      <c r="X12" t="s">
-        <v>284</v>
       </c>
       <c r="AB12">
         <v>2018</v>
@@ -2101,31 +2131,31 @@
         <v>63</v>
       </c>
       <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
       <c r="I13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>67</v>
       </c>
       <c r="Q13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s">
         <v>84</v>
@@ -2135,9 +2165,6 @@
       </c>
       <c r="V13" t="s">
         <v>178</v>
-      </c>
-      <c r="W13" t="s">
-        <v>244</v>
       </c>
       <c r="AB13">
         <v>2018</v>
@@ -2160,22 +2187,22 @@
         <v>63</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
       </c>
       <c r="P14" t="s">
         <v>67</v>
@@ -2184,16 +2211,31 @@
         <v>70</v>
       </c>
       <c r="R14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s">
         <v>85</v>
       </c>
+      <c r="T14" t="s">
+        <v>143</v>
+      </c>
       <c r="U14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V14" t="s">
         <v>179</v>
+      </c>
+      <c r="X14" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>323</v>
       </c>
       <c r="AB14">
         <v>2018</v>
@@ -2216,37 +2258,37 @@
         <v>63</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P15" t="s">
         <v>67</v>
       </c>
       <c r="Q15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s">
         <v>86</v>
       </c>
       <c r="T15" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="U15" t="s">
         <v>157</v>
@@ -2258,13 +2300,13 @@
         <v>285</v>
       </c>
       <c r="Y15" t="s">
-        <v>311</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s">
-        <v>321</v>
+        <v>242</v>
       </c>
       <c r="AA15" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="AB15">
         <v>2018</v>
@@ -2287,22 +2329,22 @@
         <v>63</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>7</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
       </c>
       <c r="P16" t="s">
         <v>67</v>
@@ -2311,31 +2353,19 @@
         <v>71</v>
       </c>
       <c r="R16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s">
-        <v>87</v>
-      </c>
-      <c r="T16" t="s">
         <v>83</v>
       </c>
       <c r="U16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V16" t="s">
-        <v>181</v>
-      </c>
-      <c r="X16" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y16" t="s">
         <v>177</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="W16" t="s">
         <v>243</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>284</v>
       </c>
       <c r="AB16">
         <v>2018</v>
@@ -2358,43 +2388,46 @@
         <v>63</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P17" t="s">
         <v>67</v>
       </c>
       <c r="Q17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U17" t="s">
         <v>157</v>
       </c>
       <c r="V17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W17" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="X17" t="s">
+        <v>283</v>
       </c>
       <c r="AB17">
         <v>2018</v>
@@ -2405,58 +2438,46 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
         <v>63</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>6</v>
       </c>
       <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>7</v>
-      </c>
-      <c r="J18">
-        <v>7</v>
-      </c>
-      <c r="N18">
+        <v>7</v>
+      </c>
+      <c r="M18">
         <v>8</v>
       </c>
       <c r="P18" t="s">
         <v>67</v>
       </c>
       <c r="Q18" t="s">
-        <v>72</v>
-      </c>
-      <c r="R18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="S18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="U18" t="s">
         <v>158</v>
       </c>
       <c r="V18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="W18" t="s">
-        <v>243</v>
-      </c>
-      <c r="X18" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="AB18">
         <v>2018</v>
@@ -2467,25 +2488,49 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>63</v>
       </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
       <c r="P19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" t="s">
-        <v>73</v>
-      </c>
-      <c r="R19" t="s">
-        <v>74</v>
+      <c r="S19" t="s">
+        <v>88</v>
+      </c>
+      <c r="U19" t="s">
+        <v>159</v>
+      </c>
+      <c r="V19" t="s">
+        <v>182</v>
+      </c>
+      <c r="W19" t="s">
+        <v>245</v>
+      </c>
+      <c r="X19" t="s">
+        <v>240</v>
       </c>
       <c r="AB19">
         <v>2018</v>
@@ -2514,10 +2559,13 @@
         <v>6</v>
       </c>
       <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="M20">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
       </c>
       <c r="P20" t="s">
         <v>67</v>
@@ -2526,16 +2574,16 @@
         <v>69</v>
       </c>
       <c r="S20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AB20">
         <v>2018</v>
@@ -2558,15 +2606,18 @@
         <v>63</v>
       </c>
       <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
       <c r="H21">
         <v>6</v>
       </c>
-      <c r="M21">
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
         <v>6</v>
       </c>
       <c r="P21" t="s">
@@ -2576,19 +2627,19 @@
         <v>69</v>
       </c>
       <c r="S21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X21" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="AB21">
         <v>2018</v>
@@ -2617,13 +2668,10 @@
         <v>6</v>
       </c>
       <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
       </c>
       <c r="P22" t="s">
         <v>67</v>
@@ -2632,16 +2680,25 @@
         <v>70</v>
       </c>
       <c r="S22" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="T22" t="s">
+        <v>131</v>
       </c>
       <c r="U22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="W22" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>275</v>
       </c>
       <c r="AB22">
         <v>2018</v>
@@ -2667,16 +2724,13 @@
         <v>4</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23">
         <v>6</v>
       </c>
-      <c r="I23">
-        <v>6</v>
-      </c>
-      <c r="J23">
-        <v>6</v>
+      <c r="M23">
+        <v>4</v>
       </c>
       <c r="P23" t="s">
         <v>67</v>
@@ -2685,19 +2739,22 @@
         <v>70</v>
       </c>
       <c r="S23" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="T23" t="s">
+        <v>144</v>
       </c>
       <c r="U23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V23" t="s">
-        <v>185</v>
-      </c>
-      <c r="W23" t="s">
-        <v>248</v>
-      </c>
-      <c r="X23" t="s">
-        <v>287</v>
+        <v>186</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>324</v>
       </c>
       <c r="AB23">
         <v>2018</v>
@@ -2720,12 +2777,18 @@
         <v>63</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="K24">
         <v>7</v>
       </c>
       <c r="M24">
@@ -2738,25 +2801,16 @@
         <v>71</v>
       </c>
       <c r="S24" t="s">
-        <v>92</v>
-      </c>
-      <c r="T24" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="U24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="W24" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="AB24">
         <v>2018</v>
@@ -2779,13 +2833,19 @@
         <v>63</v>
       </c>
       <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="K25">
         <v>4</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
       </c>
       <c r="M25">
         <v>4</v>
@@ -2797,22 +2857,19 @@
         <v>71</v>
       </c>
       <c r="S25" t="s">
-        <v>93</v>
-      </c>
-      <c r="T25" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="U25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V25" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>325</v>
+        <v>184</v>
+      </c>
+      <c r="W25" t="s">
+        <v>247</v>
+      </c>
+      <c r="X25" t="s">
+        <v>286</v>
       </c>
       <c r="AB25">
         <v>2018</v>
@@ -2823,52 +2880,58 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
         <v>63</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26">
-        <v>6</v>
-      </c>
-      <c r="K26">
-        <v>7</v>
-      </c>
-      <c r="M26">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
       </c>
       <c r="P26" t="s">
         <v>67</v>
       </c>
       <c r="Q26" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="R26" t="s">
+        <v>73</v>
       </c>
       <c r="S26" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="U26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="V26" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="W26" t="s">
-        <v>245</v>
+        <v>249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>287</v>
       </c>
       <c r="AB26">
         <v>2018</v>
@@ -2879,55 +2942,58 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
         <v>63</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
       </c>
       <c r="P27" t="s">
         <v>67</v>
       </c>
       <c r="Q27" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="R27" t="s">
+        <v>73</v>
       </c>
       <c r="S27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="U27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="W27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="X27" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AB27">
         <v>2018</v>
@@ -2938,22 +3004,43 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
         <v>63</v>
       </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
       <c r="P28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q28" t="s">
+        <v>69</v>
+      </c>
+      <c r="R28" t="s">
         <v>73</v>
+      </c>
+      <c r="S28" t="s">
+        <v>95</v>
+      </c>
+      <c r="U28" t="s">
+        <v>160</v>
+      </c>
+      <c r="V28" t="s">
+        <v>189</v>
       </c>
       <c r="AB28">
         <v>2018</v>
@@ -2976,21 +3063,12 @@
         <v>63</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29">
-        <v>6</v>
-      </c>
-      <c r="O29">
         <v>4</v>
       </c>
       <c r="P29" t="s">
@@ -3000,22 +3078,22 @@
         <v>69</v>
       </c>
       <c r="R29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="U29" t="s">
         <v>161</v>
       </c>
       <c r="V29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="W29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="X29" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AB29">
         <v>2018</v>
@@ -3038,46 +3116,55 @@
         <v>63</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30">
         <v>4</v>
       </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>6</v>
-      </c>
-      <c r="J30">
-        <v>7</v>
-      </c>
-      <c r="O30">
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="N30">
         <v>7</v>
       </c>
       <c r="P30" t="s">
         <v>67</v>
       </c>
       <c r="Q30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="T30" t="s">
+        <v>145</v>
       </c>
       <c r="U30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V30" t="s">
-        <v>189</v>
-      </c>
-      <c r="W30" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="X30" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>325</v>
       </c>
       <c r="AB30">
         <v>2018</v>
@@ -3108,6 +3195,18 @@
       <c r="H31">
         <v>6</v>
       </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
       <c r="P31" t="s">
         <v>67</v>
       </c>
@@ -3115,16 +3214,31 @@
         <v>70</v>
       </c>
       <c r="R31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s">
+        <v>98</v>
+      </c>
+      <c r="T31" t="s">
         <v>96</v>
       </c>
       <c r="U31" t="s">
         <v>161</v>
       </c>
       <c r="V31" t="s">
+        <v>192</v>
+      </c>
+      <c r="X31" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y31" t="s">
         <v>190</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>289</v>
       </c>
       <c r="AB31">
         <v>2018</v>
@@ -3147,37 +3261,34 @@
         <v>63</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
       </c>
       <c r="P32" t="s">
         <v>67</v>
       </c>
       <c r="Q32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="U32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V32" t="s">
-        <v>191</v>
-      </c>
-      <c r="W32" t="s">
-        <v>252</v>
-      </c>
-      <c r="X32" t="s">
-        <v>290</v>
+        <v>189</v>
       </c>
       <c r="AB32">
         <v>2018</v>
@@ -3200,24 +3311,15 @@
         <v>63</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G33">
         <v>7</v>
       </c>
       <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>7</v>
-      </c>
-      <c r="J33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L33">
-        <v>7</v>
-      </c>
-      <c r="N33">
         <v>7</v>
       </c>
       <c r="P33" t="s">
@@ -3227,28 +3329,22 @@
         <v>71</v>
       </c>
       <c r="R33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s">
-        <v>98</v>
-      </c>
-      <c r="T33" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="U33" t="s">
         <v>161</v>
       </c>
       <c r="V33" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="W33" t="s">
+        <v>250</v>
       </c>
       <c r="X33" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="AB33">
         <v>2018</v>
@@ -3259,13 +3355,13 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
         <v>63</v>
@@ -3274,28 +3370,22 @@
         <v>6</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>6</v>
-      </c>
-      <c r="J34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P34" t="s">
         <v>67</v>
       </c>
       <c r="Q34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R34" t="s">
         <v>74</v>
@@ -3303,26 +3393,17 @@
       <c r="S34" t="s">
         <v>99</v>
       </c>
-      <c r="T34" t="s">
-        <v>97</v>
-      </c>
       <c r="U34" t="s">
         <v>162</v>
       </c>
       <c r="V34" t="s">
         <v>193</v>
       </c>
+      <c r="W34" t="s">
+        <v>252</v>
+      </c>
       <c r="X34" t="s">
         <v>292</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>290</v>
       </c>
       <c r="AB34">
         <v>2018</v>
@@ -3333,13 +3414,13 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
         <v>63</v>
@@ -3351,28 +3432,34 @@
         <v>6</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P35" t="s">
         <v>67</v>
       </c>
       <c r="Q35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R35" t="s">
         <v>74</v>
       </c>
       <c r="S35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="U35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="V35" t="s">
-        <v>190</v>
+        <v>194</v>
+      </c>
+      <c r="W35" t="s">
+        <v>253</v>
       </c>
       <c r="AB35">
         <v>2018</v>
@@ -3383,52 +3470,49 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
         <v>63</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H36">
         <v>6</v>
       </c>
-      <c r="L36">
-        <v>7</v>
+      <c r="I36">
+        <v>6</v>
       </c>
       <c r="P36" t="s">
         <v>67</v>
       </c>
       <c r="Q36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R36" t="s">
         <v>74</v>
       </c>
       <c r="S36" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="U36" t="s">
         <v>162</v>
       </c>
       <c r="V36" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="W36" t="s">
-        <v>251</v>
-      </c>
-      <c r="X36" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="AB36">
         <v>2018</v>
@@ -3439,25 +3523,49 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
         <v>63</v>
       </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
       <c r="P37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R37" t="s">
         <v>74</v>
+      </c>
+      <c r="S37" t="s">
+        <v>102</v>
+      </c>
+      <c r="U37" t="s">
+        <v>163</v>
+      </c>
+      <c r="V37" t="s">
+        <v>196</v>
+      </c>
+      <c r="W37" t="s">
+        <v>255</v>
       </c>
       <c r="AB37">
         <v>2018</v>
@@ -3483,40 +3591,46 @@
         <v>6</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H38">
         <v>3</v>
       </c>
       <c r="I38">
-        <v>7</v>
-      </c>
-      <c r="L38">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
       </c>
       <c r="P38" t="s">
         <v>67</v>
       </c>
       <c r="Q38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="T38" t="s">
+        <v>146</v>
       </c>
       <c r="U38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V38" t="s">
-        <v>194</v>
-      </c>
-      <c r="W38" t="s">
-        <v>253</v>
-      </c>
-      <c r="X38" t="s">
-        <v>293</v>
+        <v>197</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>326</v>
       </c>
       <c r="AB38">
         <v>2018</v>
@@ -3539,40 +3653,55 @@
         <v>63</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H39">
         <v>6</v>
       </c>
       <c r="I39">
-        <v>5</v>
-      </c>
-      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="N39">
         <v>7</v>
       </c>
       <c r="P39" t="s">
         <v>67</v>
       </c>
       <c r="Q39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="T39" t="s">
+        <v>147</v>
       </c>
       <c r="U39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="W39" t="s">
-        <v>254</v>
+        <v>256</v>
+      </c>
+      <c r="X39" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>327</v>
       </c>
       <c r="AB39">
         <v>2018</v>
@@ -3598,34 +3727,25 @@
         <v>3</v>
       </c>
       <c r="G40">
-        <v>6</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
-      <c r="I40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P40" t="s">
         <v>67</v>
       </c>
       <c r="Q40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S40" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="U40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V40" t="s">
-        <v>196</v>
-      </c>
-      <c r="W40" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="AB40">
         <v>2018</v>
@@ -3651,34 +3771,31 @@
         <v>6</v>
       </c>
       <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P41" t="s">
         <v>67</v>
       </c>
       <c r="Q41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="W41" t="s">
         <v>256</v>
+      </c>
+      <c r="X41" t="s">
+        <v>293</v>
       </c>
       <c r="AB41">
         <v>2018</v>
@@ -3701,49 +3818,40 @@
         <v>63</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42">
-        <v>6</v>
-      </c>
-      <c r="J42">
-        <v>6</v>
-      </c>
-      <c r="N42">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>7</v>
       </c>
       <c r="P42" t="s">
         <v>67</v>
       </c>
       <c r="Q42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S42" t="s">
-        <v>104</v>
-      </c>
-      <c r="T42" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="U42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V42" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>327</v>
+        <v>193</v>
+      </c>
+      <c r="W42" t="s">
+        <v>252</v>
+      </c>
+      <c r="X42" t="s">
+        <v>292</v>
       </c>
       <c r="AB42">
         <v>2018</v>
@@ -3766,55 +3874,37 @@
         <v>63</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H43">
         <v>6</v>
       </c>
-      <c r="I43">
-        <v>7</v>
-      </c>
-      <c r="J43">
-        <v>3</v>
-      </c>
-      <c r="N43">
-        <v>7</v>
+      <c r="K43">
+        <v>5</v>
       </c>
       <c r="P43" t="s">
         <v>67</v>
       </c>
       <c r="Q43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s">
-        <v>105</v>
-      </c>
-      <c r="T43" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="U43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="W43" t="s">
-        <v>257</v>
-      </c>
-      <c r="X43" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>328</v>
+        <v>255</v>
       </c>
       <c r="AB43">
         <v>2018</v>
@@ -3825,13 +3915,13 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
         <v>63</v>
@@ -3840,25 +3930,31 @@
         <v>3</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
       </c>
       <c r="P44" t="s">
         <v>67</v>
       </c>
       <c r="Q44" t="s">
-        <v>72</v>
-      </c>
-      <c r="R44" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="S44" t="s">
         <v>106</v>
       </c>
       <c r="U44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V44" t="s">
         <v>200</v>
+      </c>
+      <c r="W44" t="s">
+        <v>257</v>
       </c>
       <c r="AB44">
         <v>2018</v>
@@ -3869,13 +3965,13 @@
         <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
         <v>63</v>
@@ -3884,28 +3980,31 @@
         <v>6</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
       </c>
       <c r="P45" t="s">
         <v>67</v>
       </c>
       <c r="Q45" t="s">
-        <v>72</v>
-      </c>
-      <c r="R45" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="S45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V45" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X45" t="s">
         <v>294</v>
@@ -3919,52 +4018,40 @@
         <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
         <v>63</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>10</v>
-      </c>
-      <c r="K46">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P46" t="s">
         <v>67</v>
       </c>
       <c r="Q46" t="s">
-        <v>73</v>
-      </c>
-      <c r="R46" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S46" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="U46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V46" t="s">
-        <v>194</v>
-      </c>
-      <c r="W46" t="s">
-        <v>253</v>
-      </c>
-      <c r="X46" t="s">
-        <v>293</v>
+        <v>202</v>
       </c>
       <c r="AB46">
         <v>2018</v>
@@ -3975,13 +4062,13 @@
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
         <v>63</v>
@@ -3995,29 +4082,26 @@
       <c r="H47">
         <v>6</v>
       </c>
-      <c r="K47">
-        <v>5</v>
-      </c>
       <c r="P47" t="s">
         <v>67</v>
       </c>
       <c r="Q47" t="s">
-        <v>73</v>
-      </c>
-      <c r="R47" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S47" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="U47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="W47" t="s">
-        <v>256</v>
+        <v>259</v>
+      </c>
+      <c r="X47" t="s">
+        <v>295</v>
       </c>
       <c r="AB47">
         <v>2018</v>
@@ -4040,34 +4124,46 @@
         <v>63</v>
       </c>
       <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
         <v>3</v>
       </c>
-      <c r="G48">
-        <v>6</v>
-      </c>
       <c r="H48">
         <v>6</v>
       </c>
       <c r="I48">
+        <v>7</v>
+      </c>
+      <c r="J48">
         <v>6</v>
       </c>
       <c r="P48" t="s">
         <v>67</v>
       </c>
       <c r="Q48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S48" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="T48" t="s">
+        <v>132</v>
       </c>
       <c r="U48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V48" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="W48" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>302</v>
       </c>
       <c r="AB48">
         <v>2018</v>
@@ -4093,34 +4189,43 @@
         <v>6</v>
       </c>
       <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
         <v>2</v>
       </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49">
-        <v>2</v>
-      </c>
       <c r="P49" t="s">
         <v>67</v>
       </c>
       <c r="Q49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S49" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="T49" t="s">
+        <v>107</v>
       </c>
       <c r="U49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V49" t="s">
-        <v>202</v>
-      </c>
-      <c r="W49" t="s">
-        <v>259</v>
-      </c>
-      <c r="X49" t="s">
-        <v>295</v>
+        <v>205</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>294</v>
       </c>
       <c r="AB49">
         <v>2018</v>
@@ -4143,28 +4248,31 @@
         <v>63</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P50" t="s">
         <v>67</v>
       </c>
       <c r="Q50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="U50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V50" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="W50" t="s">
+        <v>257</v>
       </c>
       <c r="AB50">
         <v>2018</v>
@@ -4187,34 +4295,34 @@
         <v>63</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P51" t="s">
         <v>67</v>
       </c>
       <c r="Q51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB51">
         <v>2018</v>
@@ -4225,58 +4333,52 @@
         <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
         <v>63</v>
       </c>
       <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52">
         <v>2</v>
       </c>
-      <c r="G52">
-        <v>3</v>
-      </c>
       <c r="H52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>7</v>
-      </c>
-      <c r="J52">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>7</v>
       </c>
       <c r="P52" t="s">
         <v>67</v>
       </c>
       <c r="Q52" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S52" t="s">
-        <v>111</v>
-      </c>
-      <c r="T52" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="U52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W52" t="s">
         <v>261</v>
       </c>
-      <c r="Y52" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>303</v>
+      <c r="X52" t="s">
+        <v>294</v>
       </c>
       <c r="AB52">
         <v>2018</v>
@@ -4287,13 +4389,13 @@
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
         <v>63</v>
@@ -4305,40 +4407,28 @@
         <v>6</v>
       </c>
       <c r="H53">
+        <v>7</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="K53">
         <v>4</v>
       </c>
-      <c r="I53">
-        <v>5</v>
-      </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
       <c r="P53" t="s">
         <v>67</v>
       </c>
       <c r="Q53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S53" t="s">
-        <v>112</v>
-      </c>
-      <c r="T53" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="U53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V53" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="AB53">
         <v>2018</v>
@@ -4349,43 +4439,58 @@
         <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
         <v>63</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H54">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>9</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
       </c>
       <c r="P54" t="s">
         <v>67</v>
       </c>
       <c r="Q54" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S54" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="U54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V54" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="W54" t="s">
-        <v>258</v>
+        <v>262</v>
+      </c>
+      <c r="X54" t="s">
+        <v>296</v>
       </c>
       <c r="AB54">
         <v>2018</v>
@@ -4396,46 +4501,58 @@
         <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
         <v>63</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H55">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>7</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="O55">
+        <v>7</v>
       </c>
       <c r="P55" t="s">
         <v>67</v>
       </c>
       <c r="Q55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S55" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="U55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V55" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="W55" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="X55" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB55">
         <v>2018</v>
@@ -4446,22 +4563,61 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
         <v>63</v>
       </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>7</v>
+      </c>
       <c r="P56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q56" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="S56" t="s">
+        <v>116</v>
+      </c>
+      <c r="T56" t="s">
+        <v>148</v>
+      </c>
+      <c r="U56" t="s">
+        <v>166</v>
+      </c>
+      <c r="V56" t="s">
+        <v>210</v>
+      </c>
+      <c r="W56" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>328</v>
       </c>
       <c r="AB56">
         <v>2018</v>
@@ -4484,40 +4640,49 @@
         <v>63</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P57" t="s">
         <v>67</v>
       </c>
       <c r="Q57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S57" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="T57" t="s">
+        <v>119</v>
       </c>
       <c r="U57" t="s">
         <v>167</v>
       </c>
       <c r="V57" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="W57" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="X57" t="s">
-        <v>295</v>
+        <v>298</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>267</v>
       </c>
       <c r="AB57">
         <v>2018</v>
@@ -4543,31 +4708,25 @@
         <v>6</v>
       </c>
       <c r="G58">
-        <v>6</v>
-      </c>
-      <c r="H58">
-        <v>7</v>
-      </c>
-      <c r="I58">
-        <v>6</v>
-      </c>
-      <c r="K58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P58" t="s">
         <v>67</v>
       </c>
       <c r="Q58" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S58" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U58" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="V58" t="s">
-        <v>208</v>
+        <v>212</v>
+      </c>
+      <c r="W58" t="s">
+        <v>266</v>
       </c>
       <c r="AB58">
         <v>2018</v>
@@ -4590,46 +4749,28 @@
         <v>63</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>7</v>
-      </c>
-      <c r="H59">
-        <v>3</v>
-      </c>
-      <c r="I59">
-        <v>6</v>
-      </c>
-      <c r="J59">
-        <v>6</v>
-      </c>
-      <c r="L59">
-        <v>9</v>
-      </c>
-      <c r="O59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P59" t="s">
         <v>67</v>
       </c>
       <c r="Q59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S59" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="U59" t="s">
         <v>167</v>
       </c>
       <c r="V59" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="W59" t="s">
-        <v>263</v>
-      </c>
-      <c r="X59" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="AB59">
         <v>2018</v>
@@ -4640,13 +4781,13 @@
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E60" t="s">
         <v>63</v>
@@ -4655,43 +4796,34 @@
         <v>6</v>
       </c>
       <c r="G60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I60">
-        <v>3</v>
-      </c>
-      <c r="J60">
-        <v>7</v>
-      </c>
-      <c r="L60">
-        <v>7</v>
-      </c>
-      <c r="O60">
+        <v>6</v>
+      </c>
+      <c r="M60">
         <v>7</v>
       </c>
       <c r="P60" t="s">
         <v>67</v>
       </c>
       <c r="Q60" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="R60" t="s">
+        <v>74</v>
       </c>
       <c r="S60" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="U60" t="s">
         <v>168</v>
       </c>
       <c r="V60" t="s">
-        <v>210</v>
-      </c>
-      <c r="W60" t="s">
-        <v>264</v>
-      </c>
-      <c r="X60" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="AB60">
         <v>2018</v>
@@ -4702,61 +4834,52 @@
         <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E61" t="s">
         <v>63</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="M61">
         <v>5</v>
       </c>
-      <c r="I61">
-        <v>4</v>
-      </c>
-      <c r="K61">
-        <v>7</v>
-      </c>
       <c r="P61" t="s">
         <v>67</v>
       </c>
       <c r="Q61" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="R61" t="s">
+        <v>74</v>
       </c>
       <c r="S61" t="s">
-        <v>117</v>
-      </c>
-      <c r="T61" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="U61" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="V61" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="W61" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="AB61">
         <v>2018</v>
@@ -4767,13 +4890,13 @@
         <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D62" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E62" t="s">
         <v>63</v>
@@ -4785,43 +4908,31 @@
         <v>6</v>
       </c>
       <c r="H62">
-        <v>7</v>
-      </c>
-      <c r="I62">
-        <v>6</v>
-      </c>
-      <c r="K62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P62" t="s">
         <v>67</v>
       </c>
       <c r="Q62" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="R62" t="s">
+        <v>74</v>
       </c>
       <c r="S62" t="s">
-        <v>118</v>
-      </c>
-      <c r="T62" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="U62" t="s">
         <v>168</v>
       </c>
       <c r="V62" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="W62" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="X62" t="s">
         <v>299</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>268</v>
       </c>
       <c r="AB62">
         <v>2018</v>
@@ -4832,40 +4943,46 @@
         <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E63" t="s">
         <v>63</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G63">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
       </c>
       <c r="P63" t="s">
         <v>67</v>
       </c>
       <c r="Q63" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="R63" t="s">
+        <v>74</v>
       </c>
       <c r="S63" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="U63" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="V63" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="W63" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AB63">
         <v>2018</v>
@@ -4876,40 +4993,64 @@
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E64" t="s">
         <v>63</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>7</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+      <c r="J64">
         <v>5</v>
       </c>
+      <c r="M64">
+        <v>7</v>
+      </c>
       <c r="P64" t="s">
         <v>67</v>
       </c>
       <c r="Q64" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="R64" t="s">
+        <v>74</v>
       </c>
       <c r="S64" t="s">
         <v>120</v>
       </c>
+      <c r="T64" t="s">
+        <v>133</v>
+      </c>
       <c r="U64" t="s">
         <v>168</v>
       </c>
       <c r="V64" t="s">
         <v>214</v>
       </c>
-      <c r="W64" t="s">
-        <v>268</v>
+      <c r="Y64" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>303</v>
       </c>
       <c r="AB64">
         <v>2018</v>
@@ -4920,22 +5061,64 @@
         <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E65" t="s">
         <v>63</v>
       </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
       <c r="P65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q65" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="R65" t="s">
+        <v>74</v>
+      </c>
+      <c r="S65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T65" t="s">
+        <v>121</v>
+      </c>
+      <c r="U65" t="s">
+        <v>169</v>
+      </c>
+      <c r="V65" t="s">
+        <v>217</v>
+      </c>
+      <c r="W65" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>268</v>
       </c>
       <c r="AB65">
         <v>2018</v>
@@ -4958,37 +5141,40 @@
         <v>63</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I66">
         <v>6</v>
       </c>
-      <c r="M66">
-        <v>7</v>
-      </c>
       <c r="P66" t="s">
         <v>67</v>
       </c>
       <c r="Q66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V66" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="W66" t="s">
+        <v>269</v>
+      </c>
+      <c r="X66" t="s">
+        <v>299</v>
       </c>
       <c r="AB66">
         <v>2018</v>
@@ -5011,40 +5197,37 @@
         <v>63</v>
       </c>
       <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
         <v>4</v>
       </c>
-      <c r="G67">
-        <v>6</v>
-      </c>
       <c r="H67">
         <v>6</v>
       </c>
       <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="M67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P67" t="s">
         <v>67</v>
       </c>
       <c r="Q67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB67">
         <v>2018</v>
@@ -5067,37 +5250,31 @@
         <v>63</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G68">
         <v>6</v>
       </c>
-      <c r="H68">
-        <v>6</v>
+      <c r="L68">
+        <v>3</v>
       </c>
       <c r="P68" t="s">
         <v>67</v>
       </c>
       <c r="Q68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V68" t="s">
-        <v>217</v>
-      </c>
-      <c r="W68" t="s">
-        <v>270</v>
-      </c>
-      <c r="X68" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="AB68">
         <v>2018</v>
@@ -5120,31 +5297,31 @@
         <v>63</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G69">
-        <v>4</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
       </c>
       <c r="P69" t="s">
         <v>67</v>
       </c>
       <c r="Q69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="W69" t="s">
         <v>271</v>
@@ -5155,67 +5332,49 @@
     </row>
     <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I70">
         <v>6</v>
       </c>
       <c r="J70">
-        <v>5</v>
-      </c>
-      <c r="M70">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P70" t="s">
         <v>67</v>
       </c>
       <c r="Q70" t="s">
-        <v>71</v>
-      </c>
-      <c r="R70" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="S70" t="s">
-        <v>121</v>
-      </c>
-      <c r="T70" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="U70" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="V70" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="AB70">
         <v>2018</v>
@@ -5223,19 +5382,19 @@
     </row>
     <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F71">
         <v>6</v>
@@ -5244,46 +5403,34 @@
         <v>6</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J71">
-        <v>7</v>
-      </c>
-      <c r="M71">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P71" t="s">
         <v>67</v>
       </c>
       <c r="Q71" t="s">
-        <v>71</v>
-      </c>
-      <c r="R71" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="S71" t="s">
-        <v>124</v>
-      </c>
-      <c r="T71" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="U71" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="V71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="W71" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>269</v>
+        <v>272</v>
+      </c>
+      <c r="X71" t="s">
+        <v>300</v>
       </c>
       <c r="AB71">
         <v>2018</v>
@@ -5291,55 +5438,55 @@
     </row>
     <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G72">
         <v>6</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I72">
         <v>6</v>
       </c>
+      <c r="K72">
+        <v>6</v>
+      </c>
       <c r="P72" t="s">
         <v>67</v>
       </c>
       <c r="Q72" t="s">
-        <v>72</v>
-      </c>
-      <c r="R72" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S72" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="U72" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="V72" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="W72" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="X72" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="AB72">
         <v>2018</v>
@@ -5347,52 +5494,55 @@
     </row>
     <row r="73" spans="1:28">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K73">
+        <v>8</v>
       </c>
       <c r="P73" t="s">
         <v>67</v>
       </c>
       <c r="Q73" t="s">
-        <v>72</v>
-      </c>
-      <c r="R73" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S73" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="U73" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="V73" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="W73" t="s">
-        <v>269</v>
+        <v>273</v>
+      </c>
+      <c r="X73" t="s">
+        <v>301</v>
       </c>
       <c r="AB73">
         <v>2018</v>
@@ -5400,46 +5550,58 @@
     </row>
     <row r="74" spans="1:28">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
         <v>3</v>
       </c>
-      <c r="G74">
-        <v>6</v>
-      </c>
-      <c r="L74">
-        <v>3</v>
+      <c r="H74">
+        <v>1</v>
       </c>
       <c r="P74" t="s">
         <v>67</v>
       </c>
       <c r="Q74" t="s">
-        <v>73</v>
-      </c>
-      <c r="R74" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S74" t="s">
-        <v>125</v>
+        <v>86</v>
+      </c>
+      <c r="T74" t="s">
+        <v>82</v>
       </c>
       <c r="U74" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="V74" t="s">
-        <v>219</v>
+        <v>180</v>
+      </c>
+      <c r="X74" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>283</v>
       </c>
       <c r="AB74">
         <v>2018</v>
@@ -5447,49 +5609,58 @@
     </row>
     <row r="75" spans="1:28">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D75" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F75">
         <v>6</v>
       </c>
       <c r="G75">
-        <v>7</v>
-      </c>
-      <c r="L75">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
       </c>
       <c r="P75" t="s">
         <v>67</v>
       </c>
       <c r="Q75" t="s">
-        <v>73</v>
-      </c>
-      <c r="R75" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S75" t="s">
-        <v>126</v>
+        <v>80</v>
+      </c>
+      <c r="T75" t="s">
+        <v>138</v>
       </c>
       <c r="U75" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="V75" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="W75" t="s">
-        <v>272</v>
+        <v>240</v>
+      </c>
+      <c r="X75" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>307</v>
       </c>
       <c r="AB75">
         <v>2018</v>
@@ -5512,34 +5683,40 @@
         <v>64</v>
       </c>
       <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
         <v>3</v>
       </c>
-      <c r="G76">
-        <v>2</v>
-      </c>
-      <c r="H76">
-        <v>6</v>
-      </c>
-      <c r="I76">
-        <v>6</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
+      <c r="M76">
+        <v>3</v>
       </c>
       <c r="P76" t="s">
         <v>67</v>
       </c>
       <c r="Q76" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S76" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V76" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="W76" t="s">
+        <v>242</v>
+      </c>
+      <c r="X76" t="s">
+        <v>283</v>
       </c>
       <c r="AB76">
         <v>2018</v>
@@ -5562,40 +5739,40 @@
         <v>64</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G77">
         <v>6</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I77">
-        <v>3</v>
-      </c>
-      <c r="J77">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="M77">
+        <v>7</v>
       </c>
       <c r="P77" t="s">
         <v>67</v>
       </c>
       <c r="Q77" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AB77">
         <v>2018</v>
@@ -5606,52 +5783,40 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s">
         <v>54</v>
       </c>
       <c r="D78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E78" t="s">
         <v>64</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H78">
-        <v>6</v>
-      </c>
-      <c r="I78">
-        <v>6</v>
-      </c>
-      <c r="K78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P78" t="s">
         <v>67</v>
       </c>
       <c r="Q78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S78" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="U78" t="s">
         <v>158</v>
       </c>
       <c r="V78" t="s">
-        <v>177</v>
-      </c>
-      <c r="W78" t="s">
-        <v>243</v>
-      </c>
-      <c r="X78" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="AB78">
         <v>2018</v>
@@ -5662,52 +5827,46 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s">
         <v>54</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E79" t="s">
         <v>64</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H79">
-        <v>2</v>
-      </c>
-      <c r="I79">
-        <v>3</v>
-      </c>
-      <c r="K79">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P79" t="s">
         <v>67</v>
       </c>
       <c r="Q79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S79" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="U79" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="V79" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="W79" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="X79" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="AB79">
         <v>2018</v>
@@ -5718,55 +5877,43 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s">
         <v>54</v>
       </c>
       <c r="D80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E80" t="s">
         <v>64</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P80" t="s">
         <v>67</v>
       </c>
       <c r="Q80" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S80" t="s">
-        <v>87</v>
-      </c>
-      <c r="T80" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="U80" t="s">
         <v>158</v>
       </c>
       <c r="V80" t="s">
-        <v>181</v>
-      </c>
-      <c r="X80" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>284</v>
+        <v>223</v>
+      </c>
+      <c r="W80" t="s">
+        <v>274</v>
       </c>
       <c r="AB80">
         <v>2018</v>
@@ -5777,55 +5924,40 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
         <v>54</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E81" t="s">
         <v>64</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P81" t="s">
         <v>67</v>
       </c>
       <c r="Q81" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S81" t="s">
-        <v>81</v>
-      </c>
-      <c r="T81" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="U81" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="V81" t="s">
-        <v>175</v>
-      </c>
-      <c r="W81" t="s">
-        <v>241</v>
-      </c>
-      <c r="X81" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="AB81">
         <v>2018</v>
@@ -5836,52 +5968,55 @@
         <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
         <v>54</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E82" t="s">
         <v>64</v>
       </c>
       <c r="F82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H82">
         <v>6</v>
       </c>
       <c r="I82">
-        <v>3</v>
-      </c>
-      <c r="M82">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+      <c r="N82">
+        <v>7</v>
       </c>
       <c r="P82" t="s">
         <v>67</v>
       </c>
       <c r="Q82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S82" t="s">
-        <v>83</v>
+        <v>131</v>
+      </c>
+      <c r="T82" t="s">
+        <v>149</v>
       </c>
       <c r="U82" t="s">
         <v>158</v>
       </c>
       <c r="V82" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="W82" t="s">
-        <v>243</v>
-      </c>
-      <c r="X82" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AB82">
         <v>2018</v>
@@ -5892,52 +6027,64 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
         <v>54</v>
       </c>
       <c r="D83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E83" t="s">
         <v>64</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G83">
         <v>6</v>
       </c>
       <c r="H83">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I83">
         <v>6</v>
       </c>
-      <c r="M83">
-        <v>7</v>
+      <c r="J83">
+        <v>7</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
       </c>
       <c r="P83" t="s">
         <v>67</v>
       </c>
       <c r="Q83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S83" t="s">
-        <v>127</v>
+        <v>98</v>
+      </c>
+      <c r="T83" t="s">
+        <v>96</v>
       </c>
       <c r="U83" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="V83" t="s">
-        <v>221</v>
-      </c>
-      <c r="W83" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="X83" t="s">
-        <v>301</v>
+        <v>291</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>289</v>
       </c>
       <c r="AB83">
         <v>2018</v>
@@ -5948,22 +6095,43 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
         <v>54</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E84" t="s">
         <v>64</v>
       </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84">
+        <v>6</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
       <c r="P84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q84" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="S84" t="s">
+        <v>129</v>
+      </c>
+      <c r="U84" t="s">
+        <v>158</v>
+      </c>
+      <c r="V84" t="s">
+        <v>223</v>
+      </c>
+      <c r="W84" t="s">
+        <v>274</v>
       </c>
       <c r="AB84">
         <v>2018</v>
@@ -5986,28 +6154,34 @@
         <v>64</v>
       </c>
       <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
         <v>4</v>
       </c>
-      <c r="G85">
-        <v>2</v>
-      </c>
       <c r="H85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P85" t="s">
         <v>67</v>
       </c>
       <c r="Q85" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S85" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="U85" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="V85" t="s">
-        <v>223</v>
+        <v>188</v>
+      </c>
+      <c r="W85" t="s">
+        <v>250</v>
+      </c>
+      <c r="X85" t="s">
+        <v>288</v>
       </c>
       <c r="AB85">
         <v>2018</v>
@@ -6030,34 +6204,40 @@
         <v>64</v>
       </c>
       <c r="F86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G86">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <v>7</v>
+      </c>
+      <c r="K86">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>7</v>
       </c>
       <c r="P86" t="s">
         <v>67</v>
       </c>
       <c r="Q86" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S86" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="U86" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="V86" t="s">
-        <v>189</v>
-      </c>
-      <c r="W86" t="s">
-        <v>251</v>
-      </c>
-      <c r="X86" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="AB86">
         <v>2018</v>
@@ -6088,23 +6268,32 @@
       <c r="H87">
         <v>6</v>
       </c>
+      <c r="I87">
+        <v>6</v>
+      </c>
+      <c r="J87">
+        <v>5</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>4</v>
+      </c>
       <c r="P87" t="s">
         <v>67</v>
       </c>
       <c r="Q87" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S87" t="s">
         <v>130</v>
       </c>
       <c r="U87" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="V87" t="s">
         <v>224</v>
-      </c>
-      <c r="W87" t="s">
-        <v>275</v>
       </c>
       <c r="AB87">
         <v>2018</v>
@@ -6115,40 +6304,43 @@
         <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E88" t="s">
         <v>64</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P88" t="s">
         <v>67</v>
       </c>
       <c r="Q88" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S88" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="U88" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V88" t="s">
-        <v>225</v>
+        <v>204</v>
+      </c>
+      <c r="W88" t="s">
+        <v>260</v>
       </c>
       <c r="AB88">
         <v>2018</v>
@@ -6159,55 +6351,46 @@
         <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E89" t="s">
         <v>64</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>6</v>
-      </c>
-      <c r="I89">
-        <v>7</v>
-      </c>
-      <c r="J89">
-        <v>5</v>
-      </c>
-      <c r="N89">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P89" t="s">
         <v>67</v>
       </c>
       <c r="Q89" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S89" t="s">
-        <v>132</v>
-      </c>
-      <c r="T89" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="U89" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="V89" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="W89" t="s">
-        <v>276</v>
+        <v>252</v>
+      </c>
+      <c r="X89" t="s">
+        <v>292</v>
       </c>
       <c r="AB89">
         <v>2018</v>
@@ -6218,13 +6401,13 @@
         <v>29</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E90" t="s">
         <v>64</v>
@@ -6236,46 +6419,31 @@
         <v>6</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>6</v>
-      </c>
-      <c r="J90">
-        <v>7</v>
-      </c>
-      <c r="N90">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>5</v>
       </c>
       <c r="P90" t="s">
         <v>67</v>
       </c>
       <c r="Q90" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S90" t="s">
-        <v>99</v>
-      </c>
-      <c r="T90" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="U90" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V90" t="s">
-        <v>193</v>
-      </c>
-      <c r="X90" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z90" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>290</v>
+        <v>200</v>
+      </c>
+      <c r="W90" t="s">
+        <v>257</v>
       </c>
       <c r="AB90">
         <v>2018</v>
@@ -6286,43 +6454,49 @@
         <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C91" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E91" t="s">
         <v>64</v>
       </c>
       <c r="F91">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H91">
         <v>6</v>
       </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+      <c r="L91">
+        <v>7</v>
+      </c>
       <c r="P91" t="s">
         <v>67</v>
       </c>
       <c r="Q91" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S91" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="U91" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="V91" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="W91" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="AB91">
         <v>2018</v>
@@ -6333,46 +6507,58 @@
         <v>29</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E92" t="s">
         <v>64</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
       </c>
       <c r="P92" t="s">
         <v>67</v>
       </c>
       <c r="Q92" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S92" t="s">
-        <v>95</v>
+        <v>132</v>
+      </c>
+      <c r="T92" t="s">
+        <v>150</v>
       </c>
       <c r="U92" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V92" t="s">
-        <v>189</v>
-      </c>
-      <c r="W92" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="X92" t="s">
-        <v>289</v>
+        <v>302</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>329</v>
       </c>
       <c r="AB92">
         <v>2018</v>
@@ -6383,13 +6569,13 @@
         <v>29</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E93" t="s">
         <v>64</v>
@@ -6398,37 +6584,40 @@
         <v>7</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H93">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>4</v>
-      </c>
-      <c r="J93">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K93">
         <v>7</v>
       </c>
-      <c r="M93">
-        <v>7</v>
-      </c>
       <c r="P93" t="s">
         <v>67</v>
       </c>
       <c r="Q93" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="S93" t="s">
-        <v>129</v>
+        <v>103</v>
+      </c>
+      <c r="T93" t="s">
+        <v>146</v>
       </c>
       <c r="U93" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="V93" t="s">
-        <v>223</v>
+        <v>197</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>326</v>
       </c>
       <c r="AB93">
         <v>2018</v>
@@ -6439,13 +6628,13 @@
         <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E94" t="s">
         <v>64</v>
@@ -6459,32 +6648,23 @@
       <c r="H94">
         <v>6</v>
       </c>
-      <c r="I94">
-        <v>6</v>
-      </c>
-      <c r="J94">
-        <v>5</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="M94">
-        <v>4</v>
-      </c>
       <c r="P94" t="s">
         <v>67</v>
       </c>
       <c r="Q94" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S94" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="U94" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V94" t="s">
-        <v>225</v>
+        <v>204</v>
+      </c>
+      <c r="W94" t="s">
+        <v>260</v>
       </c>
       <c r="AB94">
         <v>2018</v>
@@ -6507,31 +6687,31 @@
         <v>64</v>
       </c>
       <c r="F95">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P95" t="s">
         <v>67</v>
       </c>
       <c r="Q95" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S95" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="U95" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V95" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="W95" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AB95">
         <v>2018</v>
@@ -6542,46 +6722,58 @@
         <v>29</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E96" t="s">
         <v>64</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
+      <c r="M96">
+        <v>10</v>
       </c>
       <c r="P96" t="s">
         <v>67</v>
       </c>
       <c r="Q96" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="R96" t="s">
+        <v>75</v>
       </c>
       <c r="S96" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="U96" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="V96" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="W96" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="X96" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AB96">
         <v>2018</v>
@@ -6592,49 +6784,58 @@
         <v>29</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C97" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E97" t="s">
         <v>64</v>
       </c>
       <c r="F97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G97">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H97">
+        <v>6</v>
+      </c>
+      <c r="I97">
         <v>4</v>
       </c>
-      <c r="I97">
-        <v>2</v>
-      </c>
       <c r="L97">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="M97">
+        <v>8</v>
       </c>
       <c r="P97" t="s">
         <v>67</v>
       </c>
       <c r="Q97" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="R97" t="s">
+        <v>75</v>
       </c>
       <c r="S97" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="U97" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="V97" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="W97" t="s">
-        <v>258</v>
+        <v>276</v>
+      </c>
+      <c r="X97" t="s">
+        <v>303</v>
       </c>
       <c r="AB97">
         <v>2018</v>
@@ -6645,28 +6846,25 @@
         <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C98" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E98" t="s">
         <v>64</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G98">
         <v>7</v>
       </c>
       <c r="H98">
-        <v>6</v>
-      </c>
-      <c r="I98">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L98">
         <v>7</v>
@@ -6675,19 +6873,19 @@
         <v>67</v>
       </c>
       <c r="Q98" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="R98" t="s">
+        <v>75</v>
       </c>
       <c r="S98" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="U98" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="V98" t="s">
-        <v>196</v>
-      </c>
-      <c r="W98" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="AB98">
         <v>2018</v>
@@ -6698,58 +6896,46 @@
         <v>29</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E99" t="s">
         <v>64</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>6</v>
       </c>
       <c r="H99">
-        <v>6</v>
-      </c>
-      <c r="I99">
-        <v>6</v>
-      </c>
-      <c r="K99">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="L99">
+        <v>5</v>
       </c>
       <c r="P99" t="s">
         <v>67</v>
       </c>
       <c r="Q99" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="R99" t="s">
+        <v>75</v>
       </c>
       <c r="S99" t="s">
-        <v>133</v>
-      </c>
-      <c r="T99" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="U99" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="V99" t="s">
-        <v>227</v>
-      </c>
-      <c r="X99" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA99" t="s">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="AB99">
         <v>2018</v>
@@ -6760,55 +6946,70 @@
         <v>29</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E100" t="s">
         <v>64</v>
       </c>
       <c r="F100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I100">
-        <v>2</v>
-      </c>
-      <c r="K100">
+        <v>6</v>
+      </c>
+      <c r="L100">
+        <v>7</v>
+      </c>
+      <c r="M100">
         <v>7</v>
       </c>
       <c r="P100" t="s">
         <v>67</v>
       </c>
       <c r="Q100" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="R100" t="s">
+        <v>75</v>
       </c>
       <c r="S100" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="T100" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="U100" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="V100" t="s">
-        <v>198</v>
+        <v>211</v>
+      </c>
+      <c r="W100" t="s">
+        <v>265</v>
+      </c>
+      <c r="X100" t="s">
+        <v>298</v>
       </c>
       <c r="Y100" t="s">
-        <v>314</v>
+        <v>317</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>322</v>
       </c>
       <c r="AA100" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AB100">
         <v>2018</v>
@@ -6819,19 +7020,19 @@
         <v>29</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C101" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E101" t="s">
         <v>64</v>
       </c>
       <c r="F101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G101">
         <v>6</v>
@@ -6839,23 +7040,44 @@
       <c r="H101">
         <v>6</v>
       </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
       <c r="P101" t="s">
         <v>67</v>
       </c>
       <c r="Q101" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="R101" t="s">
+        <v>75</v>
       </c>
       <c r="S101" t="s">
-        <v>111</v>
+        <v>134</v>
+      </c>
+      <c r="T101" t="s">
+        <v>152</v>
       </c>
       <c r="U101" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="V101" t="s">
-        <v>205</v>
-      </c>
-      <c r="W101" t="s">
-        <v>261</v>
+        <v>228</v>
+      </c>
+      <c r="X101" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>304</v>
       </c>
       <c r="AB101">
         <v>2018</v>
@@ -6866,43 +7088,46 @@
         <v>29</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E102" t="s">
         <v>64</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P102" t="s">
         <v>67</v>
       </c>
       <c r="Q102" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="R102" t="s">
+        <v>75</v>
       </c>
       <c r="S102" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="U102" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="V102" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="W102" t="s">
-        <v>255</v>
+        <v>265</v>
+      </c>
+      <c r="X102" t="s">
+        <v>298</v>
       </c>
       <c r="AB102">
         <v>2018</v>
@@ -6913,22 +7138,40 @@
         <v>29</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E103" t="s">
         <v>64</v>
       </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>4</v>
+      </c>
       <c r="P103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q103" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="R103" t="s">
+        <v>75</v>
+      </c>
+      <c r="S103" t="s">
+        <v>120</v>
+      </c>
+      <c r="U103" t="s">
+        <v>168</v>
+      </c>
+      <c r="V103" t="s">
+        <v>214</v>
       </c>
       <c r="AB103">
         <v>2018</v>
@@ -6936,61 +7179,49 @@
     </row>
     <row r="104" spans="1:28">
       <c r="A104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C104" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D104" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G104">
         <v>6</v>
       </c>
       <c r="H104">
-        <v>7</v>
-      </c>
-      <c r="I104">
-        <v>6</v>
-      </c>
-      <c r="L104">
-        <v>4</v>
-      </c>
-      <c r="M104">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P104" t="s">
         <v>67</v>
       </c>
       <c r="Q104" t="s">
-        <v>69</v>
-      </c>
-      <c r="R104" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="S104" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="U104" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="V104" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="W104" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="X104" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AB104">
         <v>2018</v>
@@ -6998,61 +7229,46 @@
     </row>
     <row r="105" spans="1:28">
       <c r="A105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C105" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D105" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E105" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G105">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>6</v>
-      </c>
-      <c r="I105">
-        <v>4</v>
-      </c>
-      <c r="L105">
-        <v>7</v>
-      </c>
-      <c r="M105">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P105" t="s">
         <v>67</v>
       </c>
       <c r="Q105" t="s">
-        <v>69</v>
-      </c>
-      <c r="R105" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="S105" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="U105" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="V105" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="W105" t="s">
-        <v>277</v>
-      </c>
-      <c r="X105" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="AB105">
         <v>2018</v>
@@ -7060,28 +7276,34 @@
     </row>
     <row r="106" spans="1:28">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C106" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D106" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F106">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G106">
         <v>7</v>
       </c>
       <c r="H106">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>6</v>
       </c>
       <c r="L106">
         <v>7</v>
@@ -7090,19 +7312,22 @@
         <v>67</v>
       </c>
       <c r="Q106" t="s">
-        <v>70</v>
-      </c>
-      <c r="R106" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S106" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="U106" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="V106" t="s">
-        <v>208</v>
+        <v>220</v>
+      </c>
+      <c r="W106" t="s">
+        <v>272</v>
+      </c>
+      <c r="X106" t="s">
+        <v>300</v>
       </c>
       <c r="AB106">
         <v>2018</v>
@@ -7110,28 +7335,34 @@
     </row>
     <row r="107" spans="1:28">
       <c r="A107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C107" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D107" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G107">
         <v>6</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="I107">
+        <v>6</v>
+      </c>
+      <c r="J107">
+        <v>4</v>
       </c>
       <c r="L107">
         <v>5</v>
@@ -7140,19 +7371,19 @@
         <v>67</v>
       </c>
       <c r="Q107" t="s">
-        <v>70</v>
-      </c>
-      <c r="R107" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S107" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="U107" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="V107" t="s">
-        <v>215</v>
+        <v>183</v>
+      </c>
+      <c r="W107" t="s">
+        <v>246</v>
       </c>
       <c r="AB107">
         <v>2018</v>
@@ -7160,73 +7391,55 @@
     </row>
     <row r="108" spans="1:28">
       <c r="A108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D108" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G108">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H108">
         <v>7</v>
       </c>
-      <c r="I108">
-        <v>6</v>
-      </c>
-      <c r="L108">
-        <v>7</v>
-      </c>
       <c r="M108">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P108" t="s">
         <v>67</v>
       </c>
       <c r="Q108" t="s">
-        <v>71</v>
-      </c>
-      <c r="R108" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="S108" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="T108" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="U108" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="V108" t="s">
-        <v>212</v>
-      </c>
-      <c r="W108" t="s">
-        <v>266</v>
-      </c>
-      <c r="X108" t="s">
-        <v>299</v>
+        <v>230</v>
       </c>
       <c r="Y108" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z108" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="AA108" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="AB108">
         <v>2018</v>
@@ -7234,67 +7447,58 @@
     </row>
     <row r="109" spans="1:28">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C109" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D109" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F109">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H109">
         <v>6</v>
       </c>
-      <c r="I109">
-        <v>4</v>
-      </c>
-      <c r="L109">
-        <v>1</v>
-      </c>
       <c r="M109">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P109" t="s">
         <v>67</v>
       </c>
       <c r="Q109" t="s">
-        <v>71</v>
-      </c>
-      <c r="R109" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="S109" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T109" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="U109" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="V109" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="X109" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y109" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA109" t="s">
-        <v>305</v>
+        <v>225</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>275</v>
       </c>
       <c r="AB109">
         <v>2018</v>
@@ -7302,49 +7506,46 @@
     </row>
     <row r="110" spans="1:28">
       <c r="A110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D110" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F110">
         <v>6</v>
       </c>
       <c r="G110">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="H110">
+        <v>12</v>
       </c>
       <c r="P110" t="s">
         <v>67</v>
       </c>
       <c r="Q110" t="s">
-        <v>72</v>
-      </c>
-      <c r="R110" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S110" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="U110" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="V110" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="W110" t="s">
-        <v>266</v>
-      </c>
-      <c r="X110" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="AB110">
         <v>2018</v>
@@ -7352,43 +7553,46 @@
     </row>
     <row r="111" spans="1:28">
       <c r="A111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C111" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D111" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="H111">
+        <v>14</v>
       </c>
       <c r="P111" t="s">
         <v>67</v>
       </c>
       <c r="Q111" t="s">
-        <v>72</v>
-      </c>
-      <c r="R111" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S111" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="U111" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="V111" t="s">
-        <v>215</v>
+        <v>181</v>
+      </c>
+      <c r="W111" t="s">
+        <v>244</v>
       </c>
       <c r="AB111">
         <v>2018</v>
@@ -7396,28 +7600,49 @@
     </row>
     <row r="112" spans="1:28">
       <c r="A112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D112" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E112" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="F112">
+        <v>7</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>11</v>
+      </c>
+      <c r="K112">
+        <v>7</v>
       </c>
       <c r="P112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q112" t="s">
-        <v>73</v>
-      </c>
-      <c r="R112" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="S112" t="s">
+        <v>138</v>
+      </c>
+      <c r="U112" t="s">
+        <v>154</v>
+      </c>
+      <c r="V112" t="s">
+        <v>232</v>
+      </c>
+      <c r="X112" t="s">
+        <v>307</v>
       </c>
       <c r="AB112">
         <v>2018</v>
@@ -7440,31 +7665,31 @@
         <v>65</v>
       </c>
       <c r="F113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G113">
         <v>6</v>
       </c>
       <c r="H113">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
       </c>
       <c r="P113" t="s">
         <v>67</v>
       </c>
       <c r="Q113" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S113" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="U113" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="V113" t="s">
-        <v>230</v>
-      </c>
-      <c r="W113" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="X113" t="s">
         <v>306</v>
@@ -7478,43 +7703,46 @@
         <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C114" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D114" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E114" t="s">
         <v>65</v>
       </c>
       <c r="F114">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="L114">
+        <v>7</v>
       </c>
       <c r="P114" t="s">
         <v>67</v>
       </c>
       <c r="Q114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S114" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="U114" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="V114" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="W114" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AB114">
         <v>2018</v>
@@ -7525,55 +7753,46 @@
         <v>30</v>
       </c>
       <c r="B115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C115" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D115" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E115" t="s">
         <v>65</v>
       </c>
       <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="G115">
+        <v>6</v>
+      </c>
+      <c r="H115">
         <v>3</v>
       </c>
-      <c r="G115">
-        <v>7</v>
-      </c>
-      <c r="H115">
-        <v>6</v>
-      </c>
-      <c r="I115">
-        <v>2</v>
-      </c>
-      <c r="J115">
-        <v>6</v>
-      </c>
       <c r="L115">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P115" t="s">
         <v>67</v>
       </c>
       <c r="Q115" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S115" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U115" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="V115" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="W115" t="s">
-        <v>273</v>
-      </c>
-      <c r="X115" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="AB115">
         <v>2018</v>
@@ -7584,13 +7803,13 @@
         <v>30</v>
       </c>
       <c r="B116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D116" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E116" t="s">
         <v>65</v>
@@ -7602,34 +7821,28 @@
         <v>6</v>
       </c>
       <c r="H116">
-        <v>4</v>
-      </c>
-      <c r="I116">
-        <v>6</v>
-      </c>
-      <c r="J116">
-        <v>4</v>
-      </c>
-      <c r="L116">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="M116">
+        <v>7</v>
       </c>
       <c r="P116" t="s">
         <v>67</v>
       </c>
       <c r="Q116" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S116" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="U116" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="V116" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="W116" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AB116">
         <v>2018</v>
@@ -7640,51 +7853,48 @@
         <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C117" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D117" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E117" t="s">
         <v>65</v>
       </c>
       <c r="F117">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H117">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M117">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P117" t="s">
         <v>67</v>
       </c>
       <c r="Q117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S117" t="s">
-        <v>137</v>
-      </c>
-      <c r="T117" t="s">
         <v>139</v>
       </c>
       <c r="U117" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="V117" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y117" t="s">
         <v>233</v>
       </c>
-      <c r="AA117" t="s">
+      <c r="W117" t="s">
+        <v>278</v>
+      </c>
+      <c r="X117" t="s">
         <v>308</v>
       </c>
       <c r="AB117">
@@ -7696,55 +7906,67 @@
         <v>30</v>
       </c>
       <c r="B118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C118" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D118" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E118" t="s">
         <v>65</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H118">
         <v>6</v>
       </c>
-      <c r="M118">
-        <v>7</v>
+      <c r="I118">
+        <v>7</v>
+      </c>
+      <c r="J118">
+        <v>6</v>
+      </c>
+      <c r="L118">
+        <v>6</v>
+      </c>
+      <c r="N118">
+        <v>7</v>
+      </c>
+      <c r="O118">
+        <v>5</v>
       </c>
       <c r="P118" t="s">
         <v>67</v>
       </c>
       <c r="Q118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S118" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="T118" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="U118" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="V118" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="X118" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Y118" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z118" t="s">
-        <v>276</v>
+        <v>319</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>331</v>
       </c>
       <c r="AB118">
         <v>2018</v>
@@ -7755,43 +7977,67 @@
         <v>30</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C119" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D119" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E119" t="s">
         <v>65</v>
       </c>
       <c r="F119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H119">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>6</v>
+      </c>
+      <c r="J119">
+        <v>7</v>
+      </c>
+      <c r="L119">
+        <v>8</v>
+      </c>
+      <c r="N119">
+        <v>5</v>
+      </c>
+      <c r="O119">
+        <v>7</v>
       </c>
       <c r="P119" t="s">
         <v>67</v>
       </c>
       <c r="Q119" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S119" t="s">
-        <v>79</v>
+        <v>140</v>
+      </c>
+      <c r="T119" t="s">
+        <v>117</v>
       </c>
       <c r="U119" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="V119" t="s">
-        <v>173</v>
-      </c>
-      <c r="W119" t="s">
-        <v>239</v>
+        <v>234</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>298</v>
       </c>
       <c r="AB119">
         <v>2018</v>
@@ -7802,43 +8048,52 @@
         <v>30</v>
       </c>
       <c r="B120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D120" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E120" t="s">
         <v>65</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G120">
         <v>6</v>
       </c>
       <c r="H120">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+      <c r="K120">
+        <v>7</v>
+      </c>
+      <c r="L120">
+        <v>6</v>
       </c>
       <c r="P120" t="s">
         <v>67</v>
       </c>
       <c r="Q120" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S120" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="U120" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="V120" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="W120" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="AB120">
         <v>2018</v>
@@ -7849,46 +8104,49 @@
         <v>30</v>
       </c>
       <c r="B121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C121" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D121" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E121" t="s">
         <v>65</v>
       </c>
       <c r="F121">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G121">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H121">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="I121">
+        <v>6</v>
       </c>
       <c r="K121">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>8</v>
       </c>
       <c r="P121" t="s">
         <v>67</v>
       </c>
       <c r="Q121" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S121" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="U121" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="V121" t="s">
-        <v>233</v>
-      </c>
-      <c r="X121" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="AB121">
         <v>2018</v>
@@ -7899,13 +8157,13 @@
         <v>30</v>
       </c>
       <c r="B122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C122" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D122" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E122" t="s">
         <v>65</v>
@@ -7917,28 +8175,37 @@
         <v>6</v>
       </c>
       <c r="H122">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="I122">
+        <v>6</v>
+      </c>
+      <c r="J122">
+        <v>6</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>11</v>
       </c>
       <c r="P122" t="s">
         <v>67</v>
       </c>
       <c r="Q122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S122" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="U122" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="V122" t="s">
-        <v>232</v>
-      </c>
-      <c r="X122" t="s">
-        <v>307</v>
+        <v>200</v>
+      </c>
+      <c r="W122" t="s">
+        <v>257</v>
       </c>
       <c r="AB122">
         <v>2018</v>
@@ -7961,34 +8228,46 @@
         <v>65</v>
       </c>
       <c r="F123">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G123">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>6</v>
-      </c>
-      <c r="L123">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>3</v>
+      </c>
+      <c r="K123">
+        <v>7</v>
+      </c>
+      <c r="M123">
+        <v>13</v>
       </c>
       <c r="P123" t="s">
         <v>67</v>
       </c>
       <c r="Q123" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S123" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="U123" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="V123" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="W123" t="s">
-        <v>258</v>
+        <v>278</v>
+      </c>
+      <c r="X123" t="s">
+        <v>308</v>
       </c>
       <c r="AB123">
         <v>2018</v>
@@ -7996,49 +8275,49 @@
     </row>
     <row r="124" spans="1:28">
       <c r="A124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D124" t="s">
         <v>61</v>
       </c>
       <c r="E124" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <v>5</v>
+      </c>
+      <c r="H124">
         <v>4</v>
       </c>
-      <c r="G124">
-        <v>6</v>
-      </c>
-      <c r="H124">
-        <v>3</v>
-      </c>
-      <c r="L124">
-        <v>4</v>
-      </c>
       <c r="P124" t="s">
         <v>67</v>
       </c>
       <c r="Q124" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S124" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="U124" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="V124" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="W124" t="s">
-        <v>268</v>
+        <v>273</v>
+      </c>
+      <c r="X124" t="s">
+        <v>301</v>
       </c>
       <c r="AB124">
         <v>2018</v>
@@ -8046,49 +8325,46 @@
     </row>
     <row r="125" spans="1:28">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C125" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D125" t="s">
         <v>61</v>
       </c>
       <c r="E125" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F125">
         <v>6</v>
       </c>
       <c r="G125">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H125">
-        <v>7</v>
-      </c>
-      <c r="M125">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P125" t="s">
         <v>67</v>
       </c>
       <c r="Q125" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S125" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="U125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V125" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="W125" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AB125">
         <v>2018</v>
@@ -8096,52 +8372,43 @@
     </row>
     <row r="126" spans="1:28">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D126" t="s">
         <v>61</v>
       </c>
       <c r="E126" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H126">
-        <v>6</v>
-      </c>
-      <c r="M126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P126" t="s">
         <v>67</v>
       </c>
       <c r="Q126" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S126" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U126" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="V126" t="s">
-        <v>234</v>
-      </c>
-      <c r="W126" t="s">
-        <v>279</v>
-      </c>
-      <c r="X126" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="AB126">
         <v>2018</v>
@@ -8149,70 +8416,46 @@
     </row>
     <row r="127" spans="1:28">
       <c r="A127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C127" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D127" t="s">
         <v>61</v>
       </c>
       <c r="E127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G127">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H127">
         <v>6</v>
       </c>
-      <c r="I127">
-        <v>7</v>
-      </c>
-      <c r="J127">
-        <v>6</v>
-      </c>
-      <c r="L127">
-        <v>6</v>
-      </c>
-      <c r="N127">
-        <v>7</v>
-      </c>
-      <c r="O127">
-        <v>5</v>
-      </c>
       <c r="P127" t="s">
         <v>67</v>
       </c>
       <c r="Q127" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S127" t="s">
-        <v>133</v>
-      </c>
-      <c r="T127" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="U127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V127" t="s">
-        <v>227</v>
-      </c>
-      <c r="X127" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y127" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>332</v>
+        <v>204</v>
+      </c>
+      <c r="W127" t="s">
+        <v>260</v>
       </c>
       <c r="AB127">
         <v>2018</v>
@@ -8220,70 +8463,64 @@
     </row>
     <row r="128" spans="1:28">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C128" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D128" t="s">
         <v>61</v>
       </c>
       <c r="E128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>6</v>
-      </c>
-      <c r="J128">
-        <v>7</v>
-      </c>
-      <c r="L128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N128">
-        <v>5</v>
-      </c>
-      <c r="O128">
         <v>7</v>
       </c>
       <c r="P128" t="s">
         <v>67</v>
       </c>
       <c r="Q128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S128" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="T128" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="U128" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="V128" t="s">
-        <v>235</v>
+        <v>174</v>
+      </c>
+      <c r="W128" t="s">
+        <v>240</v>
+      </c>
+      <c r="X128" t="s">
+        <v>282</v>
       </c>
       <c r="Y128" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z128" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="AA128" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AB128">
         <v>2018</v>
@@ -8291,55 +8528,61 @@
     </row>
     <row r="129" spans="1:28">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D129" t="s">
         <v>61</v>
       </c>
       <c r="E129" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F129">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G129">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H129">
+        <v>6</v>
+      </c>
+      <c r="I129">
+        <v>6</v>
+      </c>
+      <c r="N129">
         <v>3</v>
       </c>
-      <c r="I129">
-        <v>4</v>
-      </c>
-      <c r="K129">
-        <v>7</v>
-      </c>
-      <c r="L129">
-        <v>6</v>
-      </c>
       <c r="P129" t="s">
         <v>67</v>
       </c>
       <c r="Q129" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S129" t="s">
-        <v>111</v>
+        <v>132</v>
+      </c>
+      <c r="T129" t="s">
+        <v>153</v>
       </c>
       <c r="U129" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V129" t="s">
-        <v>205</v>
-      </c>
-      <c r="W129" t="s">
-        <v>261</v>
+        <v>226</v>
+      </c>
+      <c r="X129" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>331</v>
       </c>
       <c r="AB129">
         <v>2018</v>
@@ -8347,52 +8590,52 @@
     </row>
     <row r="130" spans="1:28">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C130" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D130" t="s">
         <v>61</v>
       </c>
       <c r="E130" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F130">
         <v>6</v>
       </c>
       <c r="G130">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H130">
-        <v>6</v>
-      </c>
-      <c r="I130">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K130">
-        <v>2</v>
-      </c>
-      <c r="L130">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P130" t="s">
         <v>67</v>
       </c>
       <c r="Q130" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S130" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="U130" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="V130" t="s">
-        <v>208</v>
+        <v>220</v>
+      </c>
+      <c r="W130" t="s">
+        <v>272</v>
+      </c>
+      <c r="X130" t="s">
+        <v>300</v>
       </c>
       <c r="AB130">
         <v>2018</v>
@@ -8400,22 +8643,22 @@
     </row>
     <row r="131" spans="1:28">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C131" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D131" t="s">
         <v>61</v>
       </c>
       <c r="E131" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F131">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G131">
         <v>6</v>
@@ -8423,543 +8666,28 @@
       <c r="H131">
         <v>6</v>
       </c>
-      <c r="I131">
-        <v>6</v>
-      </c>
-      <c r="J131">
-        <v>6</v>
-      </c>
       <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P131" t="s">
         <v>67</v>
       </c>
       <c r="Q131" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S131" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U131" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V131" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="W131" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AB131">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="132" spans="1:28">
-      <c r="A132" t="s">
-        <v>30</v>
-      </c>
-      <c r="B132" t="s">
-        <v>45</v>
-      </c>
-      <c r="C132" t="s">
-        <v>54</v>
-      </c>
-      <c r="D132" t="s">
-        <v>61</v>
-      </c>
-      <c r="E132" t="s">
-        <v>65</v>
-      </c>
-      <c r="F132">
-        <v>7</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <v>7</v>
-      </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-      <c r="J132">
-        <v>3</v>
-      </c>
-      <c r="K132">
-        <v>7</v>
-      </c>
-      <c r="M132">
-        <v>13</v>
-      </c>
-      <c r="P132" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>73</v>
-      </c>
-      <c r="S132" t="s">
-        <v>140</v>
-      </c>
-      <c r="U132" t="s">
-        <v>168</v>
-      </c>
-      <c r="V132" t="s">
-        <v>234</v>
-      </c>
-      <c r="W132" t="s">
-        <v>279</v>
-      </c>
-      <c r="X132" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB132">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="133" spans="1:28">
-      <c r="A133" t="s">
-        <v>31</v>
-      </c>
-      <c r="B133" t="s">
-        <v>44</v>
-      </c>
-      <c r="C133" t="s">
-        <v>52</v>
-      </c>
-      <c r="D133" t="s">
-        <v>61</v>
-      </c>
-      <c r="E133" t="s">
-        <v>66</v>
-      </c>
-      <c r="F133">
-        <v>2</v>
-      </c>
-      <c r="G133">
-        <v>5</v>
-      </c>
-      <c r="H133">
-        <v>4</v>
-      </c>
-      <c r="P133" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>69</v>
-      </c>
-      <c r="S133" t="s">
-        <v>128</v>
-      </c>
-      <c r="U133" t="s">
-        <v>155</v>
-      </c>
-      <c r="V133" t="s">
-        <v>222</v>
-      </c>
-      <c r="W133" t="s">
-        <v>274</v>
-      </c>
-      <c r="X133" t="s">
-        <v>302</v>
-      </c>
-      <c r="AB133">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="134" spans="1:28">
-      <c r="A134" t="s">
-        <v>31</v>
-      </c>
-      <c r="B134" t="s">
-        <v>44</v>
-      </c>
-      <c r="C134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D134" t="s">
-        <v>61</v>
-      </c>
-      <c r="E134" t="s">
-        <v>66</v>
-      </c>
-      <c r="F134">
-        <v>6</v>
-      </c>
-      <c r="G134">
-        <v>7</v>
-      </c>
-      <c r="H134">
-        <v>6</v>
-      </c>
-      <c r="P134" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>69</v>
-      </c>
-      <c r="S134" t="s">
-        <v>107</v>
-      </c>
-      <c r="U134" t="s">
-        <v>165</v>
-      </c>
-      <c r="V134" t="s">
-        <v>201</v>
-      </c>
-      <c r="W134" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB134">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="135" spans="1:28">
-      <c r="A135" t="s">
-        <v>31</v>
-      </c>
-      <c r="B135" t="s">
-        <v>44</v>
-      </c>
-      <c r="C135" t="s">
-        <v>52</v>
-      </c>
-      <c r="D135" t="s">
-        <v>61</v>
-      </c>
-      <c r="E135" t="s">
-        <v>66</v>
-      </c>
-      <c r="F135">
-        <v>3</v>
-      </c>
-      <c r="G135">
-        <v>5</v>
-      </c>
-      <c r="H135">
-        <v>4</v>
-      </c>
-      <c r="P135" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>70</v>
-      </c>
-      <c r="S135" t="s">
-        <v>142</v>
-      </c>
-      <c r="U135" t="s">
-        <v>155</v>
-      </c>
-      <c r="V135" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB135">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="136" spans="1:28">
-      <c r="A136" t="s">
-        <v>31</v>
-      </c>
-      <c r="B136" t="s">
-        <v>44</v>
-      </c>
-      <c r="C136" t="s">
-        <v>52</v>
-      </c>
-      <c r="D136" t="s">
-        <v>61</v>
-      </c>
-      <c r="E136" t="s">
-        <v>66</v>
-      </c>
-      <c r="F136">
-        <v>6</v>
-      </c>
-      <c r="G136">
-        <v>7</v>
-      </c>
-      <c r="H136">
-        <v>6</v>
-      </c>
-      <c r="P136" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>70</v>
-      </c>
-      <c r="S136" t="s">
-        <v>111</v>
-      </c>
-      <c r="U136" t="s">
-        <v>165</v>
-      </c>
-      <c r="V136" t="s">
-        <v>205</v>
-      </c>
-      <c r="W136" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB136">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="137" spans="1:28">
-      <c r="A137" t="s">
-        <v>31</v>
-      </c>
-      <c r="B137" t="s">
-        <v>44</v>
-      </c>
-      <c r="C137" t="s">
-        <v>52</v>
-      </c>
-      <c r="D137" t="s">
-        <v>61</v>
-      </c>
-      <c r="E137" t="s">
-        <v>66</v>
-      </c>
-      <c r="F137">
-        <v>6</v>
-      </c>
-      <c r="G137">
-        <v>6</v>
-      </c>
-      <c r="H137">
-        <v>3</v>
-      </c>
-      <c r="I137">
-        <v>7</v>
-      </c>
-      <c r="N137">
-        <v>7</v>
-      </c>
-      <c r="P137" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>71</v>
-      </c>
-      <c r="S137" t="s">
-        <v>81</v>
-      </c>
-      <c r="T137" t="s">
-        <v>139</v>
-      </c>
-      <c r="U137" t="s">
-        <v>155</v>
-      </c>
-      <c r="V137" t="s">
-        <v>175</v>
-      </c>
-      <c r="W137" t="s">
-        <v>241</v>
-      </c>
-      <c r="X137" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y137" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA137" t="s">
-        <v>308</v>
-      </c>
-      <c r="AB137">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="138" spans="1:28">
-      <c r="A138" t="s">
-        <v>31</v>
-      </c>
-      <c r="B138" t="s">
-        <v>44</v>
-      </c>
-      <c r="C138" t="s">
-        <v>52</v>
-      </c>
-      <c r="D138" t="s">
-        <v>61</v>
-      </c>
-      <c r="E138" t="s">
-        <v>66</v>
-      </c>
-      <c r="F138">
-        <v>4</v>
-      </c>
-      <c r="G138">
-        <v>4</v>
-      </c>
-      <c r="H138">
-        <v>6</v>
-      </c>
-      <c r="I138">
-        <v>6</v>
-      </c>
-      <c r="N138">
-        <v>3</v>
-      </c>
-      <c r="P138" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>71</v>
-      </c>
-      <c r="S138" t="s">
-        <v>133</v>
-      </c>
-      <c r="T138" t="s">
-        <v>154</v>
-      </c>
-      <c r="U138" t="s">
-        <v>165</v>
-      </c>
-      <c r="V138" t="s">
-        <v>227</v>
-      </c>
-      <c r="X138" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y138" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA138" t="s">
-        <v>332</v>
-      </c>
-      <c r="AB138">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="139" spans="1:28">
-      <c r="A139" t="s">
-        <v>31</v>
-      </c>
-      <c r="B139" t="s">
-        <v>44</v>
-      </c>
-      <c r="C139" t="s">
-        <v>52</v>
-      </c>
-      <c r="D139" t="s">
-        <v>61</v>
-      </c>
-      <c r="E139" t="s">
-        <v>66</v>
-      </c>
-      <c r="F139">
-        <v>6</v>
-      </c>
-      <c r="G139">
-        <v>3</v>
-      </c>
-      <c r="H139">
-        <v>3</v>
-      </c>
-      <c r="K139">
-        <v>3</v>
-      </c>
-      <c r="P139" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>72</v>
-      </c>
-      <c r="S139" t="s">
-        <v>127</v>
-      </c>
-      <c r="U139" t="s">
-        <v>155</v>
-      </c>
-      <c r="V139" t="s">
-        <v>221</v>
-      </c>
-      <c r="W139" t="s">
-        <v>273</v>
-      </c>
-      <c r="X139" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB139">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="140" spans="1:28">
-      <c r="A140" t="s">
-        <v>31</v>
-      </c>
-      <c r="B140" t="s">
-        <v>44</v>
-      </c>
-      <c r="C140" t="s">
-        <v>52</v>
-      </c>
-      <c r="D140" t="s">
-        <v>61</v>
-      </c>
-      <c r="E140" t="s">
-        <v>66</v>
-      </c>
-      <c r="F140">
-        <v>7</v>
-      </c>
-      <c r="G140">
-        <v>6</v>
-      </c>
-      <c r="H140">
-        <v>6</v>
-      </c>
-      <c r="K140">
-        <v>7</v>
-      </c>
-      <c r="P140" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>72</v>
-      </c>
-      <c r="S140" t="s">
-        <v>111</v>
-      </c>
-      <c r="U140" t="s">
-        <v>165</v>
-      </c>
-      <c r="V140" t="s">
-        <v>205</v>
-      </c>
-      <c r="W140" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB140">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="141" spans="1:28">
-      <c r="A141" t="s">
-        <v>31</v>
-      </c>
-      <c r="B141" t="s">
-        <v>44</v>
-      </c>
-      <c r="C141" t="s">
-        <v>52</v>
-      </c>
-      <c r="D141" t="s">
-        <v>61</v>
-      </c>
-      <c r="E141" t="s">
-        <v>66</v>
-      </c>
-      <c r="P141" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB141">
         <v>2018</v>
       </c>
     </row>
